--- a/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC69E736-62B8-4C86-ACC5-33AB4D406389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD693156-45DE-4B8B-B82D-1B36DF20BB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>9884M3</t>
+  </si>
+  <si>
+    <t>Exclude</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes-didnt move during recording at all</t>
   </si>
 </sst>
 </file>
@@ -387,19 +396,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,10 +420,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -423,11 +436,14 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -437,11 +453,14 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -451,11 +470,14 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
         <v>41.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -465,11 +487,14 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
         <v>49.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -479,11 +504,14 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -493,11 +521,14 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -507,11 +538,14 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
         <v>42.3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -521,11 +555,14 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -535,11 +572,14 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -549,7 +589,10 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
         <v>31.5</v>
       </c>
     </row>

--- a/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD693156-45DE-4B8B-B82D-1B36DF20BB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C884F75-5E68-433D-B99D-E60BE948E867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes-didnt move during recording at all</t>
   </si>
 </sst>
 </file>
@@ -573,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>37.200000000000003</v>

--- a/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C884F75-5E68-433D-B99D-E60BE948E867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDAA3CA-6A02-4473-A4E4-87D7BBC214CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Yes-Photometry signal wonky</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>53</v>

--- a/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDAA3CA-6A02-4473-A4E4-87D7BBC214CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8801DBD-FE50-4EE2-9637-AB00DF7D00AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes-Photometry signal wonky</t>
   </si>
 </sst>
 </file>
@@ -399,7 +396,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>53</v>

--- a/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8801DBD-FE50-4EE2-9637-AB00DF7D00AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E6F1B5-BEA3-4DCD-80E0-40560BEC3C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Yes-Photometry signal is wonky</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>53</v>

--- a/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E6F1B5-BEA3-4DCD-80E0-40560BEC3C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D701D76E-F753-4CF0-BBF3-5CFBD71AD59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>42.3</v>

--- a/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D701D76E-F753-4CF0-BBF3-5CFBD71AD59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1D8A7A-1F34-43DF-BBA3-2603BD656CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1D8A7A-1F34-43DF-BBA3-2603BD656CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39291AA-C0C0-46B4-919E-8E76AA3971D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>42.3</v>

--- a/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39291AA-C0C0-46B4-919E-8E76AA3971D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87823A83-0D31-4243-ABD5-E63EFF980A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes-Photometry signal is wonky</t>
   </si>
 </sst>
 </file>
@@ -399,7 +396,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>53</v>

--- a/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87823A83-0D31-4243-ABD5-E63EFF980A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D860C55-782A-4F92-A9DB-C148E8AE80AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Yes-Evoked signal after 15min</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>45</v>
@@ -485,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>49.5</v>

--- a/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Raw photometry/HFDMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D860C55-782A-4F92-A9DB-C148E8AE80AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEA14EC-923E-499B-9042-830FD751C0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>45</v>
